--- a/target/classes/ExcelData/Scenario.xlsx
+++ b/target/classes/ExcelData/Scenario.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\Appium\src\main\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1E0EF2-4572-451D-A213-809188E6E088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD619F58-D57D-4244-9348-A468F191F5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="2052" windowWidth="11124" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstScen" sheetId="1" r:id="rId1"/>
     <sheet name="SecondScen" sheetId="2" r:id="rId2"/>
     <sheet name="ThirdScen" sheetId="3" r:id="rId3"/>
+    <sheet name="FourthScen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>electronics</t>
   </si>
@@ -116,7 +117,40 @@
     <t>Message</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>Bangladeshi Company</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Mohakhali</t>
+  </si>
+  <si>
+    <t>Khilgaon</t>
+  </si>
+  <si>
+    <t>British Bangladeshi Company</t>
+  </si>
+  <si>
+    <t>Barishal</t>
+  </si>
+  <si>
+    <t>khilgaon</t>
+  </si>
+  <si>
+    <t>mohakhali</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>transaction id</t>
+  </si>
+  <si>
+    <t>1hhgj23kg</t>
+  </si>
+  <si>
+    <t>01974267935</t>
   </si>
 </sst>
 </file>
@@ -147,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -182,6 +222,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFAADD9-6188-465E-8C17-936A68BF1948}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +573,7 @@
     <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -592,21 +635,47 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>12365</v>
+        <v>1219</v>
       </c>
       <c r="K2">
-        <v>197426793</v>
+        <v>88745550545</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
+        <v>1219</v>
+      </c>
+      <c r="K3">
+        <v>88745550545</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -627,7 +696,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,4 +732,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8839C1-27A1-4DAF-AEBD-B562A6C6B506}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>